--- a/DailyStudy.xlsx
+++ b/DailyStudy.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0BE27F-FE19-43BF-A4F3-E8EEAEF4EC2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A6658E-F5EB-4C21-998E-03ACDA3E8239}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IndianHistory" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -61,13 +61,193 @@
   </si>
   <si>
     <t>Motor amendment, Indo-Nepal, Economic slowdown , appoitnments of Governer</t>
+  </si>
+  <si>
+    <t>Plastic alternatives?, malnutrition, PAK apeal to UNHRC, Murder or Lynching?</t>
+  </si>
+  <si>
+    <t>https://afeias.com/knowledge-centre/newspaper-clips/13-09-2019-important-news-clippings/</t>
+  </si>
+  <si>
+    <r>
+      <t>UNHRC:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> https://en.wikipedia.org/wiki/United_Nations_Human_Rights_Council</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">,
+Chandrayan 2 - https://economictimes.indiatimes.com/news/science/chandrayaan-2-missed-history-by-0-0006-what-happened-whats-next/articleshow/71020889.cms?utm_source=quora&amp;utm_medium=referral,
+Off budget finanacing, Rolling over of subsidies, IBC and operational creditors, Investment Revival, Monetary policy transmission: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://www.youtube.com/watch?v=kO-Q3hxDeLg</t>
+    </r>
+  </si>
+  <si>
+    <t>Stone age, Indus valley civilisation, Vedic age, Mahajanpadas, Magadh</t>
+  </si>
+  <si>
+    <t>off budget financing, Rolling over of subsidies, IBC and operational credetors, Investment revival, Monetory policy transmission</t>
+  </si>
+  <si>
+    <t>Link ?</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kO-Q3hxDeLg</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iIJTGF1cO_w</t>
+  </si>
+  <si>
+    <t>Important mauryan rulers</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=elD_7jS7Zq8&amp;t=8s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SMPO60DOTKQ</t>
+  </si>
+  <si>
+    <t>Latitude and longitude, seasons, summer and winter solstice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measles vaccination, Saudi Oil fields attacks, Yemen and saudi conflict </t>
+  </si>
+  <si>
+    <t>Salient features of constitution: Lengthiest, various sources, blend of rigidity and flexibility, Federal system with unitoary bias, parlimentary form, synthesis of parlimentary sovereignity and judicial supremacy, Integrated and independent judiciary, Fundamental rights, Directive principles, fundamental duties, secular state, universal adult franchise, Single citizenship, Independent bodies,Emergancy provisions, three-tier govt., co-operative societies, CRITISISM: borrowed, copy of 35, anti or un-indian, Un-gandhian, Elephantine, Paradise for laywers</t>
+  </si>
+  <si>
+    <t>https://afeias.com/knowledge-centre/newspaper-clips/16-09-2019-important-news-clippings/</t>
+  </si>
+  <si>
+    <t>Problems with exports, Stem desertification, Jan soochna portal</t>
+  </si>
+  <si>
+    <t>Obama was right about Iran, Self inflicted slowdown</t>
+  </si>
+  <si>
+    <t>Hindu 19</t>
+  </si>
+  <si>
+    <t>https://afeias.com/knowledge-centre/newspaper-clips/17-09-2019-important-news-clippings/</t>
+  </si>
+  <si>
+    <t>jan soochna portal, Zero budget natural farming, Govt needs to invest on stalled projects, Dalit politics and fall of castism in Indian Politics, IPS : Indian Political Service?, Auto industry claims are not entirely credible</t>
+  </si>
+  <si>
+    <t>Trump impeachment, NSG, Higher education bill, The real deal Howdy Modi, Glitches after glitz, Different peas in different pods, Meaning of oneness in one nation, Live and Let live -Live-in</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vVFvs2atWyc</t>
+  </si>
+  <si>
+    <t>Govt cars or their symbols for personal use, change view on economy to recover it, Uniform civil code, Middle east and US policy of apeasement to Soudi Arabia, Govt should focus on job creating sector, Fast tract courts,</t>
+  </si>
+  <si>
+    <t>https://afeias.com/knowledge-centre/newspaper-clips/18-09-2019-important-news-clippings/</t>
+  </si>
+  <si>
+    <t>Origin of earth - nebular theory of laplace, Seismic waves, different layers, elements on earth , Rock cycle - Igneous, Sedimentary, Metamorphis rocks, examples of Metamorphis rocks, Rofinia, Pangia, lorasia, Gondwana</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DzAH67tsmh8&amp;t=1s</t>
+  </si>
+  <si>
+    <t>Mourya admin, provinces, Mantri parishad, Revenue, Saptanga, Architecture, Literary work,</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0vw9Y_rVkQ8</t>
+  </si>
+  <si>
+    <t>Energy Flow , food chain, grazing food chain , detritus food chain, Food web, Ecological pyramids: Pyramid of numbers, Pyramid of Biomass, Pyramid of Energy, Pollutants and Trophic levels- Bioaccumulation and magnification</t>
+  </si>
+  <si>
+    <t>Alfred Wegener: continental drift theory, matching coastline, same age of the rocks, fossil evidence, glacial evidence in tropical region</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IxpPoVc7y3U</t>
+  </si>
+  <si>
+    <t>Post mauryan dynasties : native, foreign, South. Shunga, kanva, satvahana, Indo greek, sakas, parthians, kushans, chola, chera, pandya</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=d9nA1YFlDuY</t>
+  </si>
+  <si>
+    <t>Shunga: pushymitra shunga, agnimitra shunga, gateway railing of sanchi stupa, bharhut stupa, Kanva-vasudev was founder, Satvahanas- founder Simuka, Gautamiputra satkarni, amravati school of arts(other were Mathura and Gandhara)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iaThnyC6ht8</t>
+  </si>
+  <si>
+    <t>Slowdown in Automobile</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=97TFzusQMuw&amp;list=PLkJ-kjtioPGqlUxUXouzs6wKfjXvkg2xA</t>
+  </si>
+  <si>
+    <t>Anti defectrion law, Subject to peoples will, Rescind action on 370 OIC tells India, India-Iran relation and INSTC, Hafeez Saeed-1267 sanction committee, A climate emergancy</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=V0HLKERN_fc&amp;list=PLkJ-kjtioPGrjGWKK_n9gHpAwaR-eShfH&amp;index=27</t>
+  </si>
+  <si>
+    <t>Preamble of the Constitution: Sovereign, Socialist, Secular, Republic, Democratic, Justice, Liberty, Equality, Fraternity, Significace of preamble, is it part of constitution? Amendabilty</t>
+  </si>
+  <si>
+    <t>Vidhisha Mehta replies to PAK, Global heart initiative - Mpower, Active, shake, Quantum suprimacy</t>
+  </si>
+  <si>
+    <t>Byju's analysis of 29th Sept</t>
+  </si>
+  <si>
+    <t>Indo greeks- Milind, Sakas- Rudradaman, Parthians- gondopherene, Kushanas- Kanishka, Second Buddha, Started Saka era, 4th and last buddhist council in Kashmir, Patronised: Ashwaghosha, Nagarjuna, Vasumitra, Charak, Shustruta</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=V-5tudgIa80&amp;list=PL2g2m75o1rKLExyCRCKbI3WoOHQOzOllL&amp;index=15</t>
+  </si>
+  <si>
+    <t>Sea floor spreading theory by Hass and Dietz, Mid oceanic ridges, Tenches, Age of the rock increase from MOR, Ocean crust is not older than mid-mesozoic era, Sea mounts are deformed at trenches. Paleo Magnetism</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BlBg5GVhZ5k</t>
+  </si>
+  <si>
+    <t>Biotic interactions: Mutualism, commensalism, Amensalism, competetion, predation, Parasitism. Bio-geo-chemical cycles, Water , carbon, nitrogen, phospurus, sulpher. Succession - primary and secondary.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +259,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -111,21 +299,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="11">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -150,11 +356,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9087D908-A10B-4E60-AD38-F6A08012E9FB}" name="Table1" displayName="Table1" ref="A1:E14" totalsRowShown="0">
-  <autoFilter ref="A1:E14" xr:uid="{54086424-7AFF-4140-BF3D-A76E50BCEE4F}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9087D908-A10B-4E60-AD38-F6A08012E9FB}" name="Table1" displayName="Table1" ref="A1:F14" totalsRowShown="0">
+  <autoFilter ref="A1:F14" xr:uid="{54086424-7AFF-4140-BF3D-A76E50BCEE4F}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{4601D0EA-624B-4B5C-AC2A-2EEF46A5C460}" name="Date"/>
-    <tableColumn id="2" xr3:uid="{5E72D46D-6CE2-4724-A197-D8A87282F560}" name="Topic" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{5E72D46D-6CE2-4724-A197-D8A87282F560}" name="Topic" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{09C3332B-1D0C-480F-8CA9-3DA1B7466728}" name="Link" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{29CCEBD6-20E9-4B31-998D-5D304C0F996E}" name="Revision 1 date"/>
     <tableColumn id="4" xr3:uid="{20C313ED-C53A-4DB3-8845-8257BFB8EA42}" name="Revision 2"/>
     <tableColumn id="5" xr3:uid="{F814DE54-FA69-431E-9D4C-F00F685B123B}" name="Revision 3"/>
@@ -164,11 +371,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{44B23C92-BE49-41F7-94A6-3025F030922A}" name="Table13" displayName="Table13" ref="A1:E14" totalsRowShown="0">
-  <autoFilter ref="A1:E14" xr:uid="{BC9C2C47-DCC1-4D84-8B2B-E6177ED79464}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{44B23C92-BE49-41F7-94A6-3025F030922A}" name="Table13" displayName="Table13" ref="A1:F14" totalsRowShown="0">
+  <autoFilter ref="A1:F14" xr:uid="{BC9C2C47-DCC1-4D84-8B2B-E6177ED79464}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{262B836A-3EE1-46B2-887C-BC31972B2F4A}" name="Date"/>
-    <tableColumn id="2" xr3:uid="{13781082-B564-47EF-AD5D-A3C0C3BACC01}" name="Topic"/>
+    <tableColumn id="2" xr3:uid="{13781082-B564-47EF-AD5D-A3C0C3BACC01}" name="Topic" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{499DD737-2408-4C0A-8074-2F8298E5889C}" name="Link"/>
     <tableColumn id="3" xr3:uid="{734B2052-8E90-4356-8ED4-420360436E3E}" name="Revision 1 date"/>
     <tableColumn id="4" xr3:uid="{C14AF66D-D87E-4A80-89A5-5362494F0276}" name="Revision 2"/>
     <tableColumn id="5" xr3:uid="{0CACE4E9-8EBB-4CCD-B216-9EE878785917}" name="Revision 3"/>
@@ -182,7 +390,7 @@
   <autoFilter ref="A1:E14" xr:uid="{BCEDDA79-7C2A-4819-A1F5-02EACD137C01}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{F5ED958F-8E73-4288-93BA-BC1212094472}" name="Date"/>
-    <tableColumn id="2" xr3:uid="{F0AE1404-479E-4083-8FA2-ACD89EC88F6F}" name="Topic" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{F0AE1404-479E-4083-8FA2-ACD89EC88F6F}" name="Topic" dataDxfId="7"/>
     <tableColumn id="3" xr3:uid="{88148940-2066-4016-AAD3-68E44286A0F2}" name="Revision 1 date"/>
     <tableColumn id="4" xr3:uid="{D0A4A4CC-61E7-4D6D-9BB3-4A328695817F}" name="Revision 2"/>
     <tableColumn id="5" xr3:uid="{F4BFAFF6-B3DA-45FA-BF26-D5E8B5D81435}" name="Revision 3"/>
@@ -192,11 +400,12 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4462D794-0C0A-4D6F-BAEF-DF94282AD184}" name="Table15" displayName="Table15" ref="A1:E14" totalsRowShown="0">
-  <autoFilter ref="A1:E14" xr:uid="{213D4D0F-F86E-44E4-BD87-98EF9D3D8787}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4462D794-0C0A-4D6F-BAEF-DF94282AD184}" name="Table15" displayName="Table15" ref="A1:F14" totalsRowShown="0">
+  <autoFilter ref="A1:F14" xr:uid="{213D4D0F-F86E-44E4-BD87-98EF9D3D8787}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{1F6E0EE7-758A-4021-BF3F-E08A7E603FF6}" name="Date"/>
-    <tableColumn id="2" xr3:uid="{132C5A4E-2B15-4081-B005-F446F3276FA3}" name="Topic"/>
+    <tableColumn id="2" xr3:uid="{132C5A4E-2B15-4081-B005-F446F3276FA3}" name="Topic" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{E0F10610-58C3-45C0-8BCF-63DDC69339C0}" name="Link" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{463AD745-F6CD-40F5-8A61-78B956F741D9}" name="Revision 1 date"/>
     <tableColumn id="4" xr3:uid="{4D9E87EA-88D8-46BD-8AB9-25D847E49C60}" name="Revision 2"/>
     <tableColumn id="5" xr3:uid="{8F75F0B2-4EEE-4421-BF2C-831216466DDA}" name="Revision 3"/>
@@ -206,11 +415,12 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2E17EE99-DC8E-4915-81AA-8A905D81C102}" name="Table16" displayName="Table16" ref="A1:E14" totalsRowShown="0">
-  <autoFilter ref="A1:E14" xr:uid="{EB794121-1F54-449C-A5CC-DB271346CB80}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2E17EE99-DC8E-4915-81AA-8A905D81C102}" name="Table16" displayName="Table16" ref="A1:F14" totalsRowShown="0">
+  <autoFilter ref="A1:F14" xr:uid="{EB794121-1F54-449C-A5CC-DB271346CB80}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{EE435F07-0195-4C3D-BCB5-3A901EFB042E}" name="Date"/>
-    <tableColumn id="2" xr3:uid="{6A3172A5-270C-47CA-AED9-839596F05D1E}" name="Topic"/>
+    <tableColumn id="2" xr3:uid="{6A3172A5-270C-47CA-AED9-839596F05D1E}" name="Topic" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{E4DF8B2D-3A28-4C98-8990-91F29FCCE70B}" name="Link ?" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{B9F6ACE1-4779-478D-B208-35095927818E}" name="Revision 1 date"/>
     <tableColumn id="4" xr3:uid="{0B73A869-3A63-4110-BBD3-C9F44AF0E310}" name="Revision 2"/>
     <tableColumn id="5" xr3:uid="{E95DCAD6-56AA-4C6B-B9BF-BB3446C0103B}" name="Revision 3"/>
@@ -252,7 +462,7 @@
   <autoFilter ref="A1:E14" xr:uid="{C3C28544-E79B-4A55-8FA4-B83277A64FA0}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{C05A5F49-46E5-4338-BB35-92DC223B2D3E}" name="Date"/>
-    <tableColumn id="2" xr3:uid="{97CF3719-CF2F-4C45-AD28-0AEE02EB05C2}" name="Topic" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{97CF3719-CF2F-4C45-AD28-0AEE02EB05C2}" name="Topic" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{7E92E76B-2B77-4404-90CF-6678A0DB5EAF}" name="Revision 1 date"/>
     <tableColumn id="4" xr3:uid="{00C156EE-D8D7-4239-BEC1-6B3BD95EBAD2}" name="Revision 2"/>
     <tableColumn id="5" xr3:uid="{055C306F-EE6F-4ECC-A2E9-8E304D580F31}" name="Revision 3"/>
@@ -539,37 +749,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.109375" customWidth="1"/>
     <col min="2" max="2" width="68.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="3" max="3" width="41.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43721</v>
       </c>
@@ -577,58 +791,187 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43725</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43726</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43734</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43735</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43735</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43737</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{D830252E-26C6-47B6-B58C-C37578677866}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{4B22A286-8E71-4849-94DA-E78DD046F00B}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{A9595C37-328C-49F6-BF00-EA4F1A316822}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{DB929633-7D15-4DE0-B4E9-B4BDFBCBF839}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{0DBE38DB-2668-4468-A92B-DD4D58E26E75}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{C767D6C8-3AA7-4BC3-8E88-0F1B216CB2C3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId7"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1499CC03-FF75-4847-A98B-83D6120028A7}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="55.77734375" customWidth="1"/>
+    <col min="2" max="2" width="55.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="55.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>43726</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43734</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43735</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43737</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{2F2EAE3D-10EE-43CB-BC14-3688750B708F}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{F45128F6-74BC-4583-9EF4-683E49ED1B4B}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{F5E50C5A-222A-4455-88B1-ADDF23E801C3}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{F2B23E4A-95A1-4739-8F31-E9D6EDAA3EE1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2A9914-D7F7-4401-A210-4BA0D9B13688}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -661,6 +1004,22 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43727</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43737</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -671,76 +1030,163 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB4F1B6-2FFD-458F-8F49-E2DCCCF2181F}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="66.33203125" customWidth="1"/>
+    <col min="2" max="2" width="80.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="58.21875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>43724</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43726</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43727</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43734</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43736</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43737</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{ABC2AD9A-8A4D-4C5B-9F61-9171FE099733}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{3A6443AC-A73A-4BF6-B802-01663E03A18C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E23A5E-4639-4857-AB47-A878961FD1B8}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="74" customWidth="1"/>
+    <col min="2" max="2" width="74" style="2" customWidth="1"/>
+    <col min="3" max="3" width="45.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>43725</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{87AF18DF-9AD4-4FA0-85FB-A531E0AA0C87}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -823,10 +1269,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78D2B76-457A-4626-B3EB-FE38F736D528}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -859,6 +1305,22 @@
         <v>6</v>
       </c>
     </row>
+    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43734</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43737</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -869,15 +1331,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5084CE-A552-4194-B656-0950CEBF4EE2}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="70.5546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="70.5546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="30.5546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -885,7 +1347,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -905,20 +1367,80 @@
       <c r="A2" s="1">
         <v>43721</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43724</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43727</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43732</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43734</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43737</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{5E987A77-0F8C-431F-BA80-825A6BDF8C5C}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{27CF3902-E775-4BF3-A306-7B2B6731A209}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{AB9AD407-8CB0-4956-8015-0C3307877C1C}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{6D5620DF-04F4-4A89-A9C0-7A8B2D58F229}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{58285A43-3B84-4217-878D-8652052C862F}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{CAEAB26A-6FA6-44C2-BD67-8221CCCBD387}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
--- a/DailyStudy.xlsx
+++ b/DailyStudy.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A6658E-F5EB-4C21-998E-03ACDA3E8239}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1DF84C-D572-4A8E-824D-9756023605CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IndianHistory" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="86">
   <si>
     <t>Date</t>
   </si>
@@ -241,6 +241,87 @@
   </si>
   <si>
     <t>Biotic interactions: Mutualism, commensalism, Amensalism, competetion, predation, Parasitism. Bio-geo-chemical cycles, Water , carbon, nitrogen, phospurus, sulpher. Succession - primary and secondary.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=f7o47FiOcIk</t>
+  </si>
+  <si>
+    <t>Representation of peoples act, Govt bans onion export - NAFED and FCI, Galo names in Arunachal Pradesh, Obesity and undernutrition coexist in India, IAU names asteroid after Pandit Jasraj, Two asian powers &amp; Island (Indo - Sino and Srilanka)</t>
+  </si>
+  <si>
+    <t>Yojana- Aug 2019</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=g7_0CR-BQww</t>
+  </si>
+  <si>
+    <t>NITI Ayog- scholl Education quality Index, IIP report on 8 core sector, Link between job, farming and climate, A test for judicial review</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=axSInqe0-YE</t>
+  </si>
+  <si>
+    <t>southern kingdoms- Chola, Chera and Pandya. Sangam age, Tolakappiyyam, Tirukunal- Bible of the south</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Oiz0wHvGTbg&amp;list=PL2g2m75o1rKLExyCRCKbI3WoOHQOzOllL&amp;index=16</t>
+  </si>
+  <si>
+    <t>plate tectonic, olivine , basalt, andesite and granite rocks and their position in earth, lithosphere, Plate interactions- Divergent boundary causing Rift valley -&gt; Nascent Sea -&gt; Mid oceaninc ridge (MOR)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yLwI0wmLYjc</t>
+  </si>
+  <si>
+    <t>Introduction to linear equations</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LJ-LoJhbBA4&amp;list=PLbMVogVj5nJQ2vsW_hmyvVfO4GYWaaPp7</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1LubzKrjr68&amp;list=PLbMVogVj5nJQ2vsW_hmyvVfO4GYWaaPp7&amp;index=2</t>
+  </si>
+  <si>
+    <t>Elementary row operations</t>
+  </si>
+  <si>
+    <t>equivalent system of linear equations, inverse of elementary row operation in matrix</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vsXNCnSPU9I&amp;list=PLbMVogVj5nJQ2vsW_hmyvVfO4GYWaaPp7&amp;index=3</t>
+  </si>
+  <si>
+    <t>The Hindu</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8a_VfEkvoqY&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=2</t>
+  </si>
+  <si>
+    <t>Barter system, Money system, full bodies vs token coins, debasement, fungibility, primary and deferential functions of Money</t>
+  </si>
+  <si>
+    <t>Gupta Empire; founder- Sri gupta, ghatotkvacha, Chandragupta-1, Samudragupta(greatest ruler)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OMbKMwqbtPU&amp;list=PL2g2m75o1rKLExyCRCKbI3WoOHQOzOllL&amp;index=17</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5Zbt8k-Ldc4&amp;list=PL2g2m75o1rKLExyCRCKbI3WoOHQOzOllL&amp;index=18</t>
+  </si>
+  <si>
+    <t>Chandragupta-2, Kumargupta, skanda gupta, later gupta(weak), last ruler - Kumar gupta-3</t>
+  </si>
+  <si>
+    <t>Gupta- maths and science, literary work, Temples, stupas, architechture</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=S1CpA5U8evw&amp;list=PL2g2m75o1rKLExyCRCKbI3WoOHQOzOllL&amp;index=19</t>
+  </si>
+  <si>
+    <t>Recovering gandhis religious vision, what gandhi would say about Indian Media, Gandhi has not spoken his last words</t>
   </si>
 </sst>
 </file>
@@ -308,7 +389,10 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -360,8 +444,8 @@
   <autoFilter ref="A1:F14" xr:uid="{54086424-7AFF-4140-BF3D-A76E50BCEE4F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{4601D0EA-624B-4B5C-AC2A-2EEF46A5C460}" name="Date"/>
-    <tableColumn id="2" xr3:uid="{5E72D46D-6CE2-4724-A197-D8A87282F560}" name="Topic" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{09C3332B-1D0C-480F-8CA9-3DA1B7466728}" name="Link" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{5E72D46D-6CE2-4724-A197-D8A87282F560}" name="Topic" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{09C3332B-1D0C-480F-8CA9-3DA1B7466728}" name="Link" dataDxfId="10"/>
     <tableColumn id="3" xr3:uid="{29CCEBD6-20E9-4B31-998D-5D304C0F996E}" name="Revision 1 date"/>
     <tableColumn id="4" xr3:uid="{20C313ED-C53A-4DB3-8845-8257BFB8EA42}" name="Revision 2"/>
     <tableColumn id="5" xr3:uid="{F814DE54-FA69-431E-9D4C-F00F685B123B}" name="Revision 3"/>
@@ -375,7 +459,7 @@
   <autoFilter ref="A1:F14" xr:uid="{BC9C2C47-DCC1-4D84-8B2B-E6177ED79464}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{262B836A-3EE1-46B2-887C-BC31972B2F4A}" name="Date"/>
-    <tableColumn id="2" xr3:uid="{13781082-B564-47EF-AD5D-A3C0C3BACC01}" name="Topic" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{13781082-B564-47EF-AD5D-A3C0C3BACC01}" name="Topic" dataDxfId="9"/>
     <tableColumn id="6" xr3:uid="{499DD737-2408-4C0A-8074-2F8298E5889C}" name="Link"/>
     <tableColumn id="3" xr3:uid="{734B2052-8E90-4356-8ED4-420360436E3E}" name="Revision 1 date"/>
     <tableColumn id="4" xr3:uid="{C14AF66D-D87E-4A80-89A5-5362494F0276}" name="Revision 2"/>
@@ -390,7 +474,7 @@
   <autoFilter ref="A1:E14" xr:uid="{BCEDDA79-7C2A-4819-A1F5-02EACD137C01}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{F5ED958F-8E73-4288-93BA-BC1212094472}" name="Date"/>
-    <tableColumn id="2" xr3:uid="{F0AE1404-479E-4083-8FA2-ACD89EC88F6F}" name="Topic" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{F0AE1404-479E-4083-8FA2-ACD89EC88F6F}" name="Topic" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{88148940-2066-4016-AAD3-68E44286A0F2}" name="Revision 1 date"/>
     <tableColumn id="4" xr3:uid="{D0A4A4CC-61E7-4D6D-9BB3-4A328695817F}" name="Revision 2"/>
     <tableColumn id="5" xr3:uid="{F4BFAFF6-B3DA-45FA-BF26-D5E8B5D81435}" name="Revision 3"/>
@@ -404,8 +488,8 @@
   <autoFilter ref="A1:F14" xr:uid="{213D4D0F-F86E-44E4-BD87-98EF9D3D8787}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{1F6E0EE7-758A-4021-BF3F-E08A7E603FF6}" name="Date"/>
-    <tableColumn id="2" xr3:uid="{132C5A4E-2B15-4081-B005-F446F3276FA3}" name="Topic" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{E0F10610-58C3-45C0-8BCF-63DDC69339C0}" name="Link" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{132C5A4E-2B15-4081-B005-F446F3276FA3}" name="Topic" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{E0F10610-58C3-45C0-8BCF-63DDC69339C0}" name="Link" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{463AD745-F6CD-40F5-8A61-78B956F741D9}" name="Revision 1 date"/>
     <tableColumn id="4" xr3:uid="{4D9E87EA-88D8-46BD-8AB9-25D847E49C60}" name="Revision 2"/>
     <tableColumn id="5" xr3:uid="{8F75F0B2-4EEE-4421-BF2C-831216466DDA}" name="Revision 3"/>
@@ -419,8 +503,8 @@
   <autoFilter ref="A1:F14" xr:uid="{EB794121-1F54-449C-A5CC-DB271346CB80}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{EE435F07-0195-4C3D-BCB5-3A901EFB042E}" name="Date"/>
-    <tableColumn id="2" xr3:uid="{6A3172A5-270C-47CA-AED9-839596F05D1E}" name="Topic" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{E4DF8B2D-3A28-4C98-8990-91F29FCCE70B}" name="Link ?" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{6A3172A5-270C-47CA-AED9-839596F05D1E}" name="Topic" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{E4DF8B2D-3A28-4C98-8990-91F29FCCE70B}" name="Link ?" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{B9F6ACE1-4779-478D-B208-35095927818E}" name="Revision 1 date"/>
     <tableColumn id="4" xr3:uid="{0B73A869-3A63-4110-BBD3-C9F44AF0E310}" name="Revision 2"/>
     <tableColumn id="5" xr3:uid="{E95DCAD6-56AA-4C6B-B9BF-BB3446C0103B}" name="Revision 3"/>
@@ -430,11 +514,12 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{1F4B9AFE-9ADF-4E99-BFF1-E1EB2F7A55D0}" name="Table17" displayName="Table17" ref="A1:E14" totalsRowShown="0">
-  <autoFilter ref="A1:E14" xr:uid="{8F46A23B-171E-462B-99D5-0BB947B5C8F0}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{1F4B9AFE-9ADF-4E99-BFF1-E1EB2F7A55D0}" name="Table17" displayName="Table17" ref="A1:F14" totalsRowShown="0">
+  <autoFilter ref="A1:F14" xr:uid="{8F46A23B-171E-462B-99D5-0BB947B5C8F0}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{59F25E5E-EEC4-472A-83D6-A443A5179B99}" name="Date"/>
     <tableColumn id="2" xr3:uid="{E79EC6E2-409B-4C44-BFB6-91CDB96716AB}" name="Topic"/>
+    <tableColumn id="6" xr3:uid="{9A887AF6-0034-4240-8CA0-08F962C3E0A3}" name="link" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{0178454D-EAC2-402A-8872-411A49177AB2}" name="Revision 1 date"/>
     <tableColumn id="4" xr3:uid="{8716402F-8B65-4BBF-A7C2-8DB25F447ECA}" name="Revision 2"/>
     <tableColumn id="5" xr3:uid="{B9FEC4D1-EF7C-4B10-9F48-10163264869A}" name="Revision 3"/>
@@ -749,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -791,25 +876,25 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43725</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43726</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -820,7 +905,7 @@
       <c r="B5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -842,7 +927,7 @@
       <c r="B7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>44</v>
       </c>
     </row>
@@ -853,8 +938,52 @@
       <c r="B8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43739</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43740</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>43740</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>43740</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -865,21 +994,25 @@
     <hyperlink ref="C7" r:id="rId4" xr:uid="{DB929633-7D15-4DE0-B4E9-B4BDFBCBF839}"/>
     <hyperlink ref="C6" r:id="rId5" xr:uid="{0DBE38DB-2668-4468-A92B-DD4D58E26E75}"/>
     <hyperlink ref="C8" r:id="rId6" xr:uid="{C767D6C8-3AA7-4BC3-8E88-0F1B216CB2C3}"/>
+    <hyperlink ref="C9" r:id="rId7" xr:uid="{4D8E0121-94B8-4188-83DA-865DE88FD021}"/>
+    <hyperlink ref="C10" r:id="rId8" xr:uid="{F048BBD9-A6C7-40A5-B0D6-023BCFFFA8CF}"/>
+    <hyperlink ref="C11" r:id="rId9" xr:uid="{E06CEE2F-E301-48F7-93BE-DEC825D0FDC0}"/>
+    <hyperlink ref="C12" r:id="rId10" xr:uid="{9B6A55B7-18D4-4863-8BF8-3AF7EF20C484}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId7"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId11"/>
   <tableParts count="1">
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1499CC03-FF75-4847-A98B-83D6120028A7}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -952,16 +1085,28 @@
         <v>57</v>
       </c>
     </row>
+    <row r="6" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43739</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{2F2EAE3D-10EE-43CB-BC14-3688750B708F}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{F45128F6-74BC-4583-9EF4-683E49ED1B4B}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{F5E50C5A-222A-4455-88B1-ADDF23E801C3}"/>
     <hyperlink ref="C5" r:id="rId4" xr:uid="{F2B23E4A-95A1-4739-8F31-E9D6EDAA3EE1}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{D46CD1BA-44E0-4566-92EF-0958F17C52CE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
@@ -971,7 +1116,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1030,10 +1175,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB4F1B6-2FFD-458F-8F49-E2DCCCF2181F}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1122,25 +1267,49 @@
         <v>53</v>
       </c>
     </row>
+    <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43739</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1" xr:uid="{ABC2AD9A-8A4D-4C5B-9F61-9171FE099733}"/>
     <hyperlink ref="C6" r:id="rId2" xr:uid="{3A6443AC-A73A-4BF6-B802-01663E03A18C}"/>
+    <hyperlink ref="C8" r:id="rId3" xr:uid="{47031420-3850-4D98-BB0A-CCE46E899C97}"/>
+    <hyperlink ref="C9" r:id="rId4" xr:uid="{BF9FAA49-57F8-41F8-8AF3-B1F2B7BE4114}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId5"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E23A5E-4639-4857-AB47-A878961FD1B8}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1180,51 +1349,105 @@
         <v>17</v>
       </c>
     </row>
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43740</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{87AF18DF-9AD4-4FA0-85FB-A531E0AA0C87}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{CC3140C2-EC6F-4B03-ABC4-00878BCA30FB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B093A3-08AD-4C6E-A23B-42579CAFD690}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="77.44140625" customWidth="1"/>
+    <col min="3" max="3" width="52.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>43739</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43739</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43740</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{764F9302-B9F6-43B5-8D19-E8F7B65D3B42}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{63958371-1D8F-4209-87E0-2E42889FE528}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{239DC6C8-045C-4C73-A708-F3CB88DBE0A1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1271,7 +1494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78D2B76-457A-4626-B3EB-FE38F736D528}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1331,10 +1554,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5084CE-A552-4194-B656-0950CEBF4EE2}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1418,15 +1641,37 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43737</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43740</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1437,10 +1682,11 @@
     <hyperlink ref="C5" r:id="rId4" xr:uid="{6D5620DF-04F4-4A89-A9C0-7A8B2D58F229}"/>
     <hyperlink ref="C6" r:id="rId5" xr:uid="{58285A43-3B84-4217-878D-8652052C862F}"/>
     <hyperlink ref="C7" r:id="rId6" xr:uid="{CAEAB26A-6FA6-44C2-BD67-8221CCCBD387}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{6A2AF459-19D0-4114-B74C-0E0C66515138}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
--- a/DailyStudy.xlsx
+++ b/DailyStudy.xlsx
@@ -3,20 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1DF84C-D572-4A8E-824D-9756023605CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487616A1-4108-4AC7-8C44-FD8E6D1C43C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IndianHistory" sheetId="1" r:id="rId1"/>
     <sheet name="Geo" sheetId="2" r:id="rId2"/>
-    <sheet name="Polity" sheetId="3" r:id="rId3"/>
-    <sheet name="Current Affair" sheetId="4" r:id="rId4"/>
+    <sheet name="Current Affair" sheetId="4" r:id="rId3"/>
+    <sheet name="Polity" sheetId="3" r:id="rId4"/>
     <sheet name="Economy" sheetId="5" r:id="rId5"/>
     <sheet name="Math" sheetId="6" r:id="rId6"/>
     <sheet name="ScienceAndtech" sheetId="7" r:id="rId7"/>
     <sheet name="Environment" sheetId="8" r:id="rId8"/>
     <sheet name="Articles" sheetId="9" r:id="rId9"/>
+    <sheet name="Eng" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="134">
   <si>
     <t>Date</t>
   </si>
@@ -323,12 +324,156 @@
   <si>
     <t>Recovering gandhis religious vision, what gandhi would say about Indian Media, Gandhi has not spoken his last words</t>
   </si>
+  <si>
+    <t xml:space="preserve">How parliament is diminished, ban on vaping hasty and counter productive, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Credo , creed, credence, disingenuous, indefatigable, credulous, gullible, shrewd, inventive, ingenuous, expedient, conceal, perspicacity, acumen, perspicuous, prospect, pungent, specious. </t>
+  </si>
+  <si>
+    <t>African Rift valley, lakes in african rift valley, Convergent plate interaction O-O -&gt; Island Arcs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Yk5Mnjq6tgI&amp;list=PLt5ECl9fjK-uTZN_cLuXFi1VNkozKQVVS&amp;index=8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2YfcxsA_UQQ</t>
+  </si>
+  <si>
+    <t>Kartarpur - dera baba corridor, India bangla - Ganges water dispute and Farrakka barrage, NRC and bangla concerns, Bru (rheang) Tribe repatriation, Drone threatening Nilgiri wildlife, Brick and Mortar of FDI 2.0, Making political parties accountable</t>
+  </si>
+  <si>
+    <t>Post Gupta- Vardhana dynasty (Pushyabhuti Dynasty)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LC9EteC1KAw&amp;list=PL2g2m75o1rKLExyCRCKbI3WoOHQOzOllL&amp;index=20</t>
+  </si>
+  <si>
+    <t>Chalukya and Pallava</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HtXea3Zhu7Q&amp;list=PL2g2m75o1rKLExyCRCKbI3WoOHQOzOllL&amp;index=21</t>
+  </si>
+  <si>
+    <t>Pasha Dinner</t>
+  </si>
+  <si>
+    <t>Terrostial ecosystem - Tundra, Forest, Indian Forest type</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IvER8wCJ8uI&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=3</t>
+  </si>
+  <si>
+    <t>Limited unlimited tender, gold standard, 1935-56, 1956, 1995, Bank money advantage</t>
+  </si>
+  <si>
+    <t>Indian Union, article 1,2,3,4. parliament's power to reorganise state, Dhar committee, JVP committee, fazl Ali commission, new states created after 1956</t>
+  </si>
+  <si>
+    <t>Arctic expedition, c40 summit, Citizenship amendment bill, National e-Assesment Center</t>
+  </si>
+  <si>
+    <t>Hindu 7th Oct analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hindu </t>
+  </si>
+  <si>
+    <t>A bill that undercuts constitutional value, Critisism is not sedition, A road to economic revival runs through agriculture</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Zux6GpUVH7k&amp;list=PLt5ECl9fjK-uTZN_cLuXFi1VNkozKQVVS&amp;index=9</t>
+  </si>
+  <si>
+    <t>O-C interaction -&gt; Volcanic mountains near sea, C-C -&gt; fold mountains like Himalaya , Alps, Ural. Formation of Himalaya and Karakoram</t>
+  </si>
+  <si>
+    <t>Deforestation - causes and effects, Grasslands in india, diff between steppe and savana, Desert ecosystem - cold and hot,Desertification, Indian State of Forest Report</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ioHwFpeBmN0&amp;list=PL2g2m75o1rKLExyCRCKbI3WoOHQOzOllL&amp;index=22</t>
+  </si>
+  <si>
+    <t>Rajputs- Pala, Pratihars, Rashtrakuts (tripartite struggle for Kannauj), Imp independent rulers - Chandel of Bundelkhand and Chauhans of Delhi</t>
+  </si>
+  <si>
+    <t>Chola(imperial) - Founder - Vijayala, Greatest rulers- Raja raja, Rajendra chola - 1, Natraja, Vrihideshwara temple, Zenith of Dravidian Architecture</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yDpZt6lk5JQ&amp;list=PL2g2m75o1rKLExyCRCKbI3WoOHQOzOllL&amp;index=23</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=INxNZK8MwJ8&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=4</t>
+  </si>
+  <si>
+    <t>Crypto currency, Blockchain behind Bitcoin, RBI stance , Govt Stance, Wattal committee</t>
+  </si>
+  <si>
+    <t>Citizenship- Acquisition : Birth, Descent, Registration, Naturalisation, Incorporation of territary, Special provisions Assam accord. Loss of citizenship- Renunciation, Termination, Deprivation. Single Citizenship, Overseas Citizen of India Cardholder</t>
+  </si>
+  <si>
+    <t>Yojana Sept 2019</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DPKrwa4CT1o&amp;list=PLt5ECl9fjK-uTZN_cLuXFi1VNkozKQVVS&amp;index=10</t>
+  </si>
+  <si>
+    <t>Mountains- Fold(true) and block mountains, Fold moutains- compressive force, younger, great height, present on unstable part, sedimentary deposits, e.g. Himalaya, Rockies, Andese, Urals, Alps. Block - Not true mountains, Tensile force, African rift valley, Vindhya, Satpura, Black forest, Vosages</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2zvv3jzV8IE&amp;list=PL2g2m75o1rKLExyCRCKbI3WoOHQOzOllL&amp;index=24</t>
+  </si>
+  <si>
+    <t>Arab and turkish start: First - Md. Bin Quasim (raid in 712 AD), Mahmud of Gajni - 17 raids, Somanath (1025), Al Burni wrote Kitab-ul-Hind, Md. Ghori 1192 defeated Prithviraj (3) Chouhan, Ghori's general Bhakhtiyar khan destroyed Nalanda and Vikramshila</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=87EhAbkiXEM&amp;list=PL2g2m75o1rKLExyCRCKbI3WoOHQOzOllL&amp;index=25</t>
+  </si>
+  <si>
+    <t>Slave dynasty : Qutub din Aibak, Iltutmish (changed capital to Delhi), Razia Sultana,…., Balban,…,Kaymur. Architechture: Quwat ul islam, Adhai din ka jhonpara, Qutub minar</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=c4qxa8SprII&amp;list=PL2g2m75o1rKLExyCRCKbI3WoOHQOzOllL&amp;index=26</t>
+  </si>
+  <si>
+    <t>Khilji Dynasty: Jalaluddin, Allauddin, Malik Kafur, Amir Khusro, last -Khurrow khan</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DHtFTdLzrLI&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=5</t>
+  </si>
+  <si>
+    <t>BANK MONEY: Paper orders-  Negotiable instrument act, Bill of exchange, cheque, promisary notes, Hundi. Section 138 of NI act, Cheque types based on date and crossing. Local vs At par cheques, MICR vs OCR, IFSC code and cheque number, CTS- Cheque truncation system( managed by NPCI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintaining India china stride, India at 68 Global competative index, quantum leap in sponsered research in top IITs, Institute of Eminicence, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hindu, http://ca.pteducation.com/p/news10102019.html, </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EfMz65SFY6Y&amp;list=PL2g2m75o1rKLExyCRCKbI3WoOHQOzOllL&amp;index=27</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vqcq59Jm1N4&amp;list=PL2g2m75o1rKLExyCRCKbI3WoOHQOzOllL&amp;index=28</t>
+  </si>
+  <si>
+    <t>Tughalaq Dynasty- Founder - Ghaiysuddin Tughalaq, Md. Bin Tughalaq, Feroz shah Tughalaq, last- Md. Shah Tughalaq</t>
+  </si>
+  <si>
+    <t>Sayyid Dyanasty - Timur invastion 1398-99, His governer of Punjab Khizr khan founded Sayyid Dynasty -&gt; Mubarak Shah -&gt;Md. Shah -&gt; Alam Shah. Lodhi Dynasty (Afghan) - Founder Bahlol Lodhi -&gt; Sikender lodhi -&gt; Ibrahim lodhi (1526 Babur panipat war)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7dvsPpnfgMQ&amp;list=PL2g2m75o1rKLExyCRCKbI3WoOHQOzOllL&amp;index=29</t>
+  </si>
+  <si>
+    <t>Mughal Empire: Babur defeated Rana Sanga of Mevar in battle of Khanwa in 1527. Auto biography - tuzuk-i-baburi in Turkish then translated to persian by Abdur rahim khanekhana - Baburnama. Died in 1530 in Agra but tomb is in kabul</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,6 +497,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -374,7 +525,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -384,12 +535,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -440,12 +597,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9087D908-A10B-4E60-AD38-F6A08012E9FB}" name="Table1" displayName="Table1" ref="A1:F14" totalsRowShown="0">
-  <autoFilter ref="A1:F14" xr:uid="{54086424-7AFF-4140-BF3D-A76E50BCEE4F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9087D908-A10B-4E60-AD38-F6A08012E9FB}" name="Table1" displayName="Table1" ref="A1:F453" totalsRowShown="0">
+  <autoFilter ref="A1:F453" xr:uid="{54086424-7AFF-4140-BF3D-A76E50BCEE4F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{4601D0EA-624B-4B5C-AC2A-2EEF46A5C460}" name="Date"/>
-    <tableColumn id="2" xr3:uid="{5E72D46D-6CE2-4724-A197-D8A87282F560}" name="Topic" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{09C3332B-1D0C-480F-8CA9-3DA1B7466728}" name="Link" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{5E72D46D-6CE2-4724-A197-D8A87282F560}" name="Topic" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{09C3332B-1D0C-480F-8CA9-3DA1B7466728}" name="Link" dataDxfId="11"/>
     <tableColumn id="3" xr3:uid="{29CCEBD6-20E9-4B31-998D-5D304C0F996E}" name="Revision 1 date"/>
     <tableColumn id="4" xr3:uid="{20C313ED-C53A-4DB3-8845-8257BFB8EA42}" name="Revision 2"/>
     <tableColumn id="5" xr3:uid="{F814DE54-FA69-431E-9D4C-F00F685B123B}" name="Revision 3"/>
@@ -459,8 +616,8 @@
   <autoFilter ref="A1:F14" xr:uid="{BC9C2C47-DCC1-4D84-8B2B-E6177ED79464}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{262B836A-3EE1-46B2-887C-BC31972B2F4A}" name="Date"/>
-    <tableColumn id="2" xr3:uid="{13781082-B564-47EF-AD5D-A3C0C3BACC01}" name="Topic" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{499DD737-2408-4C0A-8074-2F8298E5889C}" name="Link"/>
+    <tableColumn id="2" xr3:uid="{13781082-B564-47EF-AD5D-A3C0C3BACC01}" name="Topic" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{499DD737-2408-4C0A-8074-2F8298E5889C}" name="Link" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{734B2052-8E90-4356-8ED4-420360436E3E}" name="Revision 1 date"/>
     <tableColumn id="4" xr3:uid="{C14AF66D-D87E-4A80-89A5-5362494F0276}" name="Revision 2"/>
     <tableColumn id="5" xr3:uid="{0CACE4E9-8EBB-4CCD-B216-9EE878785917}" name="Revision 3"/>
@@ -470,29 +627,29 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4462D794-0C0A-4D6F-BAEF-DF94282AD184}" name="Table15" displayName="Table15" ref="A1:F14" totalsRowShown="0">
+  <autoFilter ref="A1:F14" xr:uid="{213D4D0F-F86E-44E4-BD87-98EF9D3D8787}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{1F6E0EE7-758A-4021-BF3F-E08A7E603FF6}" name="Date"/>
+    <tableColumn id="2" xr3:uid="{132C5A4E-2B15-4081-B005-F446F3276FA3}" name="Topic" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{E0F10610-58C3-45C0-8BCF-63DDC69339C0}" name="Link" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{463AD745-F6CD-40F5-8A61-78B956F741D9}" name="Revision 1 date"/>
+    <tableColumn id="4" xr3:uid="{4D9E87EA-88D8-46BD-8AB9-25D847E49C60}" name="Revision 2"/>
+    <tableColumn id="5" xr3:uid="{8F75F0B2-4EEE-4421-BF2C-831216466DDA}" name="Revision 3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BCFFC9C5-CD42-45FE-B804-8C39167B1D36}" name="Table14" displayName="Table14" ref="A1:E14" totalsRowShown="0">
   <autoFilter ref="A1:E14" xr:uid="{BCEDDA79-7C2A-4819-A1F5-02EACD137C01}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{F5ED958F-8E73-4288-93BA-BC1212094472}" name="Date"/>
-    <tableColumn id="2" xr3:uid="{F0AE1404-479E-4083-8FA2-ACD89EC88F6F}" name="Topic" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{F0AE1404-479E-4083-8FA2-ACD89EC88F6F}" name="Topic" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{88148940-2066-4016-AAD3-68E44286A0F2}" name="Revision 1 date"/>
     <tableColumn id="4" xr3:uid="{D0A4A4CC-61E7-4D6D-9BB3-4A328695817F}" name="Revision 2"/>
     <tableColumn id="5" xr3:uid="{F4BFAFF6-B3DA-45FA-BF26-D5E8B5D81435}" name="Revision 3"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4462D794-0C0A-4D6F-BAEF-DF94282AD184}" name="Table15" displayName="Table15" ref="A1:F14" totalsRowShown="0">
-  <autoFilter ref="A1:F14" xr:uid="{213D4D0F-F86E-44E4-BD87-98EF9D3D8787}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{1F6E0EE7-758A-4021-BF3F-E08A7E603FF6}" name="Date"/>
-    <tableColumn id="2" xr3:uid="{132C5A4E-2B15-4081-B005-F446F3276FA3}" name="Topic" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{E0F10610-58C3-45C0-8BCF-63DDC69339C0}" name="Link" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{463AD745-F6CD-40F5-8A61-78B956F741D9}" name="Revision 1 date"/>
-    <tableColumn id="4" xr3:uid="{4D9E87EA-88D8-46BD-8AB9-25D847E49C60}" name="Revision 2"/>
-    <tableColumn id="5" xr3:uid="{8F75F0B2-4EEE-4421-BF2C-831216466DDA}" name="Revision 3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -834,10 +991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -953,37 +1110,147 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43740</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43740</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43740</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>43742</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>43742</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>43746</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>43746</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>43747</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>43747</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>43747</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>43748</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>43748</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>43748</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -998,27 +1265,61 @@
     <hyperlink ref="C10" r:id="rId8" xr:uid="{F048BBD9-A6C7-40A5-B0D6-023BCFFFA8CF}"/>
     <hyperlink ref="C11" r:id="rId9" xr:uid="{E06CEE2F-E301-48F7-93BE-DEC825D0FDC0}"/>
     <hyperlink ref="C12" r:id="rId10" xr:uid="{9B6A55B7-18D4-4863-8BF8-3AF7EF20C484}"/>
+    <hyperlink ref="C13" r:id="rId11" xr:uid="{00074C46-3453-447B-B444-548266F3CCDC}"/>
+    <hyperlink ref="C14" r:id="rId12" xr:uid="{64CDBDF7-D966-467C-BF11-1FDD50EADCAF}"/>
+    <hyperlink ref="C15" r:id="rId13" xr:uid="{57A254EE-94AC-4C62-9F6E-9F4785B6CB66}"/>
+    <hyperlink ref="C16" r:id="rId14" xr:uid="{3B84DE64-5476-4110-9595-EFEA9D803B5C}"/>
+    <hyperlink ref="C17" r:id="rId15" xr:uid="{4BDDEAFA-EF8C-4FDE-AA0D-41DF665DF7DD}"/>
+    <hyperlink ref="C18" r:id="rId16" xr:uid="{7A219EEB-226C-4B91-8C0F-EF3EBDC00DE5}"/>
+    <hyperlink ref="C19" r:id="rId17" xr:uid="{88E7C8F8-EE0F-45F6-BB72-D45F039DCBE1}"/>
+    <hyperlink ref="C20" r:id="rId18" xr:uid="{D2A3B423-E531-4A8E-BC9A-ABC1B282F18C}"/>
+    <hyperlink ref="C21" r:id="rId19" xr:uid="{7B6508A8-B945-465F-B440-9723121065C2}"/>
+    <hyperlink ref="C22" r:id="rId20" xr:uid="{F8AC60B9-87D0-4E1B-8922-BF6489F2EDE1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId11"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId21"/>
   <tableParts count="1">
-    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId22"/>
   </tableParts>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83403EBF-35A0-46D6-914B-8481A514EC72}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="159" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1499CC03-FF75-4847-A98B-83D6120028A7}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="55.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="55.77734375" customWidth="1"/>
+    <col min="3" max="3" width="47.21875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -1028,7 +1329,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D1" t="s">
@@ -1048,7 +1349,7 @@
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1059,7 +1360,7 @@
       <c r="B3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1070,7 +1371,7 @@
       <c r="B4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1081,7 +1382,7 @@
       <c r="B5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1092,8 +1393,41 @@
       <c r="B6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43742</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43746</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43747</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1103,82 +1437,23 @@
     <hyperlink ref="C4" r:id="rId3" xr:uid="{F5E50C5A-222A-4455-88B1-ADDF23E801C3}"/>
     <hyperlink ref="C5" r:id="rId4" xr:uid="{F2B23E4A-95A1-4739-8F31-E9D6EDAA3EE1}"/>
     <hyperlink ref="C6" r:id="rId5" xr:uid="{D46CD1BA-44E0-4566-92EF-0958F17C52CE}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{91B727F3-74B8-4A18-96FF-7CA1C4AFAE61}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{901CCADD-46A9-4F8A-A4CA-35F52500CD80}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{28B401C9-A200-4789-8733-3765A3496138}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2A9914-D7F7-4401-A210-4BA0D9B13688}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB4F1B6-2FFD-458F-8F49-E2DCCCF2181F}">
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="70.77734375" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>43721</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>43727</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>43737</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB4F1B6-2FFD-458F-8F49-E2DCCCF2181F}">
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1289,27 +1564,139 @@
         <v>64</v>
       </c>
     </row>
+    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43742</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>43745</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>43748</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1" xr:uid="{ABC2AD9A-8A4D-4C5B-9F61-9171FE099733}"/>
     <hyperlink ref="C6" r:id="rId2" xr:uid="{3A6443AC-A73A-4BF6-B802-01663E03A18C}"/>
     <hyperlink ref="C8" r:id="rId3" xr:uid="{47031420-3850-4D98-BB0A-CCE46E899C97}"/>
     <hyperlink ref="C9" r:id="rId4" xr:uid="{BF9FAA49-57F8-41F8-8AF3-B1F2B7BE4114}"/>
+    <hyperlink ref="C10" r:id="rId5" xr:uid="{51211425-6514-4323-BB41-9FF8D3B84D91}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId6"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2A9914-D7F7-4401-A210-4BA0D9B13688}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="70.77734375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>43721</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43727</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43737</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43745</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43747</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E23A5E-4639-4857-AB47-A878961FD1B8}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1360,14 +1747,50 @@
         <v>77</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43745</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43746</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43747</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{87AF18DF-9AD4-4FA0-85FB-A531E0AA0C87}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{CC3140C2-EC6F-4B03-ABC4-00878BCA30FB}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{D73291D3-EF2D-4329-9F84-8458DCB214CC}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{C02AC17F-F6D3-4C40-96E8-5D855A8F242A}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{D6ED1D63-5CF9-4A2C-88D0-B1D6635DCC96}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1492,10 +1915,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78D2B76-457A-4626-B3EB-FE38F736D528}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1544,6 +1967,35 @@
         <v>58</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43742</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43746</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43747</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>43749</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -1554,10 +2006,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5084CE-A552-4194-B656-0950CEBF4EE2}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1672,6 +2124,36 @@
       </c>
       <c r="C9" s="2" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43741</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>43745</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>43746</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/DailyStudy.xlsx
+++ b/DailyStudy.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487616A1-4108-4AC7-8C44-FD8E6D1C43C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9C2664-1200-4835-BD7E-0EEEBF93867A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IndianHistory" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="142">
   <si>
     <t>Date</t>
   </si>
@@ -467,6 +467,30 @@
   </si>
   <si>
     <t>Mughal Empire: Babur defeated Rana Sanga of Mevar in battle of Khanwa in 1527. Auto biography - tuzuk-i-baburi in Turkish then translated to persian by Abdur rahim khanekhana - Baburnama. Died in 1530 in Agra but tomb is in kabul</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uZflC6p9nn0&amp;list=PL2g2m75o1rKLExyCRCKbI3WoOHQOzOllL&amp;index=30</t>
+  </si>
+  <si>
+    <t>Humayun, 1530-1540, 1555, Battle of Chausa and Kannuaj was defeated by SherShah Suri. Sher Shah suri - Silver Rupaya, Standard weight, Grand Trunc road Kolkata to peshawar, Purana Quila in Delhi. Md. Adil Shah - 1555 was defeated by Humayun.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2XX0u0BSK20&amp;list=PL2g2m75o1rKLExyCRCKbI3WoOHQOzOllL&amp;index=31</t>
+  </si>
+  <si>
+    <t>Akbar- 1556-60 Bairam khan, 1560-62 - Maham Anga. 1556 2nd battle of Panipat vs Hemu, 1576 - Haldighati vs Rana Pratap, Fatehpur Sikri in honour of Salim Chishti, new Religion - Din-e-ilahi, Jahangir , Nur Jahan (Mehr-ul-nisa) , 2 english men - Captian Hawkins and Sir Thompson Roe, Painting reached it's Zenith. Shah Jahan - golden age of Mughals. 2 french - Berneir and Travernier</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bTjmw-YwB54&amp;list=PL2g2m75o1rKLExyCRCKbI3WoOHQOzOllL&amp;index=32</t>
+  </si>
+  <si>
+    <t>Aurangazeb(alamgir, Zinda pir) religious intolerent, 9th Guru Tej bahadur was asasinated , 10th Guru givind singh founded Khalasa. Annexed Vijapur and Govalconda</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=aqNiGBkKezs&amp;list=PLt5ECl9fjK-uTZN_cLuXFi1VNkozKQVVS&amp;index=11</t>
+  </si>
+  <si>
+    <t>Plateu's of the world</t>
   </si>
 </sst>
 </file>
@@ -991,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1251,6 +1275,39 @@
       </c>
       <c r="C22" s="4" t="s">
         <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>43752</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>43752</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>43752</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1275,11 +1332,14 @@
     <hyperlink ref="C20" r:id="rId18" xr:uid="{D2A3B423-E531-4A8E-BC9A-ABC1B282F18C}"/>
     <hyperlink ref="C21" r:id="rId19" xr:uid="{7B6508A8-B945-465F-B440-9723121065C2}"/>
     <hyperlink ref="C22" r:id="rId20" xr:uid="{F8AC60B9-87D0-4E1B-8922-BF6489F2EDE1}"/>
+    <hyperlink ref="C23" r:id="rId21" xr:uid="{7F220036-2DFF-4292-8AA1-001045058A48}"/>
+    <hyperlink ref="C24" r:id="rId22" xr:uid="{51BAD030-03B7-4E94-B9ED-D91F24D34807}"/>
+    <hyperlink ref="C25" r:id="rId23" xr:uid="{65F22F72-888D-4CD5-AD25-FC79F49BE257}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId21"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId24"/>
   <tableParts count="1">
-    <tablePart r:id="rId22"/>
+    <tablePart r:id="rId25"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1310,10 +1370,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1499CC03-FF75-4847-A98B-83D6120028A7}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1430,6 +1490,17 @@
         <v>116</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43752</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{2F2EAE3D-10EE-43CB-BC14-3688750B708F}"/>
@@ -1440,20 +1511,21 @@
     <hyperlink ref="C7" r:id="rId6" xr:uid="{91B727F3-74B8-4A18-96FF-7CA1C4AFAE61}"/>
     <hyperlink ref="C8" r:id="rId7" xr:uid="{901CCADD-46A9-4F8A-A4CA-35F52500CD80}"/>
     <hyperlink ref="C9" r:id="rId8" xr:uid="{28B401C9-A200-4789-8733-3765A3496138}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{83860A9D-69AC-4280-936D-998A516C46E9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB4F1B6-2FFD-458F-8F49-E2DCCCF2181F}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1595,6 +1667,11 @@
       </c>
       <c r="C12" s="2" t="s">
         <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>43752</v>
       </c>
     </row>
   </sheetData>
@@ -1695,8 +1772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E23A5E-4639-4857-AB47-A878961FD1B8}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/DailyStudy.xlsx
+++ b/DailyStudy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9C2664-1200-4835-BD7E-0EEEBF93867A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3612DA02-EFCD-4FB5-BD94-110BE358E851}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="148">
   <si>
     <t>Date</t>
   </si>
@@ -491,6 +491,24 @@
   </si>
   <si>
     <t>Plateu's of the world</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QBAORCV2Kzg&amp;list=PL2g2m75o1rKLExyCRCKbI3WoOHQOzOllL&amp;index=33</t>
+  </si>
+  <si>
+    <t>Architecture- Mosque at Panipat and sambhalpur, jamali Mosque, Agra fort, Fateh pursikri, Buland darwaja, Moti mosque at lahore, Taj, Red fort, Jama Masjid, Bibi ka makbara. Literature - Ramcharit manas by Tulsidas, Ramayan and Mahabharata by Badouni, Gita and upnishad by Dara Sikho</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1CmfMju5aKs&amp;list=PL2g2m75o1rKLExyCRCKbI3WoOHQOzOllL&amp;index=34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">European traders : Portugese - Dutch - English - French. </t>
+  </si>
+  <si>
+    <t>Ecomincs nobel and Randomised control trials, Financial stability and RBI, Is india still a minimally decent country?</t>
+  </si>
+  <si>
+    <t>Hindu - 15 oct</t>
   </si>
 </sst>
 </file>
@@ -1015,10 +1033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1308,6 +1326,28 @@
       </c>
       <c r="C25" s="4" t="s">
         <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>43753</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>43753</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1335,11 +1375,13 @@
     <hyperlink ref="C23" r:id="rId21" xr:uid="{7F220036-2DFF-4292-8AA1-001045058A48}"/>
     <hyperlink ref="C24" r:id="rId22" xr:uid="{51BAD030-03B7-4E94-B9ED-D91F24D34807}"/>
     <hyperlink ref="C25" r:id="rId23" xr:uid="{65F22F72-888D-4CD5-AD25-FC79F49BE257}"/>
+    <hyperlink ref="C26" r:id="rId24" xr:uid="{F8C67EC1-4A75-44AC-B616-21B9ECEC66BD}"/>
+    <hyperlink ref="C27" r:id="rId25" xr:uid="{73D6BE95-34C9-4474-A544-51D601A6FABC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId24"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId26"/>
   <tableParts count="1">
-    <tablePart r:id="rId25"/>
+    <tablePart r:id="rId27"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1525,7 +1567,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1669,9 +1711,15 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>43752</v>
+        <v>43753</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1770,10 +1818,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E23A5E-4639-4857-AB47-A878961FD1B8}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1855,6 +1903,11 @@
       </c>
       <c r="C6" s="4" t="s">
         <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43753</v>
       </c>
     </row>
   </sheetData>
